--- a/biology/Médecine/1360_en_santé_et_médecine/1360_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1360_en_santé_et_médecine/1360_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1360_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1360_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1360 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1360_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1360_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Première mention de l'hôpital Sainte-Marie à Bourg, en Bresse, dans le comté de Savoie, établissement qui accueille aussi les femmes en couches, et qui est à l'origine de l'hôtel-Dieu[1].
-La confrérie Notre-Dame de la Major possède à Avignon un hôpital qu'elle voue à l'accueil des marchands, des pèlerins et des indigents italiens[2].
-Vers 1360 : avec le consentement de Philippe d'Arbois, évêque de Tournai[3], fondation de l'hospice des Tisserands à Gand en Flandre, sur le rempart du Kauter[4].
-1360-1362 : la peste sévit en France, en Angleterre et en Europe[5].
-1333-1360 : huit médecins ou chirurgiens sont attachés à la cour du roi de France Philippe VI de Valois : Gilbert Hamelin[6], Premier médecin du roi et précepteur du dauphin Charles[7], Guy de Vigevano, Thomas Ogier[8], Jean de Lyons[9], Robert et Gilles de Denneville[10], Étienne de Chaumont[6] et Jean de Besançon[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Première mention de l'hôpital Sainte-Marie à Bourg, en Bresse, dans le comté de Savoie, établissement qui accueille aussi les femmes en couches, et qui est à l'origine de l'hôtel-Dieu.
+La confrérie Notre-Dame de la Major possède à Avignon un hôpital qu'elle voue à l'accueil des marchands, des pèlerins et des indigents italiens.
+Vers 1360 : avec le consentement de Philippe d'Arbois, évêque de Tournai, fondation de l'hospice des Tisserands à Gand en Flandre, sur le rempart du Kauter.
+1360-1362 : la peste sévit en France, en Angleterre et en Europe.
+1333-1360 : huit médecins ou chirurgiens sont attachés à la cour du roi de France Philippe VI de Valois : Gilbert Hamelin, Premier médecin du roi et précepteur du dauphin Charles, Guy de Vigevano, Thomas Ogier, Jean de Lyons, Robert et Gilles de Denneville, Étienne de Chaumont et Jean de Besançon.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1360_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1360_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sigismond Albicus (mort en 1427), médecin, juriste et homme d’Église morave, professeur de médecine à Prague, docteur en droit à Padoue, médecin de Wenceslas IV, roi de Bohême, archevêque de Prague puis de Césarée, abbé de Wihrad, auteur d'une Praxis medica, d'un Regimen sanitatis et d'un Regimen pestilentiae imprimés en 1487[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sigismond Albicus (mort en 1427), médecin, juriste et homme d’Église morave, professeur de médecine à Prague, docteur en droit à Padoue, médecin de Wenceslas IV, roi de Bohême, archevêque de Prague puis de Césarée, abbé de Wihrad, auteur d'une Praxis medica, d'un Regimen sanitatis et d'un Regimen pestilentiae imprimés en 1487.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1360_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1360_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6 février : Muhammad al-Shafra (es) (né vers 1270-1280), chirurgien arabe, né en Espagne, probablement à Crevillente[12],[13].
-Gilbert Hamelin (né à une date inconnue), médecin de Charles le Bel, Premier médecin de Philippe VI et précepteur du dauphin Charles[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 février : Muhammad al-Shafra (es) (né vers 1270-1280), chirurgien arabe, né en Espagne, probablement à Crevillente,.
+Gilbert Hamelin (né à une date inconnue), médecin de Charles le Bel, Premier médecin de Philippe VI et précepteur du dauphin Charles.</t>
         </is>
       </c>
     </row>
